--- a/Code/Results/Cases/Case_9_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.24678805718557</v>
+        <v>24.44307359118704</v>
       </c>
       <c r="C2">
-        <v>19.79684940052508</v>
+        <v>18.84945595138836</v>
       </c>
       <c r="D2">
-        <v>9.442240316330984</v>
+        <v>10.02066305241336</v>
       </c>
       <c r="E2">
-        <v>30.67466357065959</v>
+        <v>29.10526702065993</v>
       </c>
       <c r="F2">
-        <v>63.54804827132347</v>
+        <v>63.03962927701833</v>
       </c>
       <c r="G2">
-        <v>2.010439868272769</v>
+        <v>2.074527469938671</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.089966362669392</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.037267292020123</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -462,34 +468,40 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.21958043420728</v>
+        <v>22.75403469952843</v>
       </c>
       <c r="C3">
-        <v>18.26974872213662</v>
+        <v>17.53033396951019</v>
       </c>
       <c r="D3">
-        <v>8.914116238228157</v>
+        <v>9.477274155190834</v>
       </c>
       <c r="E3">
-        <v>28.2244039492688</v>
+        <v>27.02775996347093</v>
       </c>
       <c r="F3">
-        <v>59.22243557171265</v>
+        <v>59.07048019432784</v>
       </c>
       <c r="G3">
-        <v>2.029395341366887</v>
+        <v>2.084514762941586</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.711583836633365</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.666704839883651</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -509,34 +521,40 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.930789809534</v>
+        <v>21.65952378285824</v>
       </c>
       <c r="C4">
-        <v>17.30170589585188</v>
+        <v>16.68690558818472</v>
       </c>
       <c r="D4">
-        <v>8.588640760384001</v>
+        <v>9.126601439550928</v>
       </c>
       <c r="E4">
-        <v>26.67941584961203</v>
+        <v>25.68821643124625</v>
       </c>
       <c r="F4">
-        <v>56.51277687824792</v>
+        <v>56.50830951348823</v>
       </c>
       <c r="G4">
-        <v>2.041032923588916</v>
+        <v>2.090765124095499</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.473648940128331</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.509508808433992</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -556,34 +574,40 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.39372297482674</v>
+        <v>21.19839618377675</v>
       </c>
       <c r="C5">
-        <v>16.89888094117254</v>
+        <v>16.35017261237931</v>
       </c>
       <c r="D5">
-        <v>8.455562333510173</v>
+        <v>8.962248306382884</v>
       </c>
       <c r="E5">
-        <v>26.03828905836542</v>
+        <v>25.1250067760214</v>
       </c>
       <c r="F5">
-        <v>55.39410197988848</v>
+        <v>55.35697436933109</v>
       </c>
       <c r="G5">
-        <v>2.045788770045434</v>
+        <v>2.093373239817404</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.374520949779008</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.613255113535315</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -603,34 +627,40 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.30380541782452</v>
+        <v>21.12034009970148</v>
       </c>
       <c r="C6">
-        <v>16.83147007907164</v>
+        <v>16.31276175098225</v>
       </c>
       <c r="D6">
-        <v>8.43343485181971</v>
+        <v>8.913715193426158</v>
       </c>
       <c r="E6">
-        <v>25.93109875840167</v>
+        <v>25.02928931015711</v>
       </c>
       <c r="F6">
-        <v>55.20745322129684</v>
+        <v>55.07122712887607</v>
       </c>
       <c r="G6">
-        <v>2.046579647295397</v>
+        <v>2.093843404499031</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.357148475066212</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.635588437125068</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -650,34 +680,40 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.92359577425717</v>
+        <v>21.65169548959532</v>
       </c>
       <c r="C7">
-        <v>17.29630786899273</v>
+        <v>16.73292013436325</v>
       </c>
       <c r="D7">
-        <v>8.5868479638106</v>
+        <v>9.067926423508622</v>
       </c>
       <c r="E7">
-        <v>26.67081769861645</v>
+        <v>25.67736305216642</v>
       </c>
       <c r="F7">
-        <v>56.49774957047094</v>
+        <v>56.24481937174074</v>
       </c>
       <c r="G7">
-        <v>2.041096991607672</v>
+        <v>2.090896024981767</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.470075046960208</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.524493452909088</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -697,34 +733,40 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.55643791326133</v>
+        <v>23.870143067299</v>
       </c>
       <c r="C8">
-        <v>19.27615912934608</v>
+        <v>18.46235242138411</v>
       </c>
       <c r="D8">
-        <v>9.260289089134478</v>
+        <v>9.765799130928215</v>
       </c>
       <c r="E8">
-        <v>29.83734108505769</v>
+        <v>28.39744764467337</v>
       </c>
       <c r="F8">
-        <v>62.06700749867034</v>
+        <v>61.38995501941691</v>
       </c>
       <c r="G8">
-        <v>2.016984953209485</v>
+        <v>2.078075537225312</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.957617360055809</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.908925381665187</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -744,34 +786,40 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.41370968656153</v>
+        <v>27.77635781228673</v>
       </c>
       <c r="C9">
-        <v>22.95616959896649</v>
+        <v>21.51752086636726</v>
       </c>
       <c r="D9">
-        <v>10.58149212437364</v>
+        <v>11.09435833615976</v>
       </c>
       <c r="E9">
-        <v>35.80129715655028</v>
+        <v>33.24354161310295</v>
       </c>
       <c r="F9">
-        <v>72.63218803581518</v>
+        <v>70.89697344570428</v>
       </c>
       <c r="G9">
-        <v>1.968923078333752</v>
+        <v>2.053570185398751</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.877518438033591</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.818003966742009</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -791,34 +839,40 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.87605203283832</v>
+        <v>30.36896984993525</v>
       </c>
       <c r="C10">
-        <v>25.60710150872071</v>
+        <v>23.60291155827736</v>
       </c>
       <c r="D10">
-        <v>11.57442240581359</v>
+        <v>11.73454473692673</v>
       </c>
       <c r="E10">
-        <v>40.1748490172909</v>
+        <v>35.62103610224544</v>
       </c>
       <c r="F10">
-        <v>80.54051721636908</v>
+        <v>76.20990935265392</v>
       </c>
       <c r="G10">
-        <v>1.931726294619023</v>
+        <v>2.036709757866656</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.482358605421413</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.449622519871673</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -838,34 +892,40 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.45422905916183</v>
+        <v>31.36121202343197</v>
       </c>
       <c r="C11">
-        <v>26.82484214780176</v>
+        <v>24.30366210427836</v>
       </c>
       <c r="D11">
-        <v>12.03904925477299</v>
+        <v>9.970562816033523</v>
       </c>
       <c r="E11">
-        <v>42.21059482593153</v>
+        <v>29.02521488677462</v>
       </c>
       <c r="F11">
-        <v>84.18346965236199</v>
+        <v>69.78476296936714</v>
       </c>
       <c r="G11">
-        <v>1.913929765371231</v>
+        <v>2.03570407727512</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.790747882991368</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.510909130059678</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -885,34 +945,40 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.05549049343355</v>
+        <v>31.68585877720369</v>
       </c>
       <c r="C12">
-        <v>27.29052468993865</v>
+        <v>24.44128593523203</v>
       </c>
       <c r="D12">
-        <v>12.21789564228058</v>
+        <v>8.470649040072542</v>
       </c>
       <c r="E12">
-        <v>42.99415990142951</v>
+        <v>23.0426619106675</v>
       </c>
       <c r="F12">
-        <v>85.57443696643972</v>
+        <v>63.59460163662632</v>
       </c>
       <c r="G12">
-        <v>1.907007552749045</v>
+        <v>2.037548408334782</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.512775492837027</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.456295562001463</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -932,34 +998,40 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.92577224411583</v>
+        <v>31.52803904234584</v>
       </c>
       <c r="C13">
-        <v>27.18997185068548</v>
+        <v>24.22003956114179</v>
       </c>
       <c r="D13">
-        <v>12.17922750502245</v>
+        <v>7.009883965657012</v>
       </c>
       <c r="E13">
-        <v>42.82471849117065</v>
+        <v>17.05336036085701</v>
       </c>
       <c r="F13">
-        <v>85.27421405460521</v>
+        <v>56.73539812628097</v>
       </c>
       <c r="G13">
-        <v>1.90850766548506</v>
+        <v>2.041798004963339</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.450362237943956</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.308155851271346</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -979,34 +1051,40 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.503599680102</v>
+        <v>31.20074615630609</v>
       </c>
       <c r="C14">
-        <v>26.86304268634484</v>
+        <v>23.91840789243268</v>
       </c>
       <c r="D14">
-        <v>12.05369738572334</v>
+        <v>6.025607134096393</v>
       </c>
       <c r="E14">
-        <v>42.27476186777458</v>
+        <v>12.91878041738623</v>
       </c>
       <c r="F14">
-        <v>84.29762506640796</v>
+        <v>51.49898527829699</v>
       </c>
       <c r="G14">
-        <v>1.913364344850408</v>
+        <v>2.045765259257151</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.201276089694248</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.16614545595082</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1026,34 +1104,40 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.24559565407764</v>
+        <v>31.01509405687257</v>
       </c>
       <c r="C15">
-        <v>26.66348472232198</v>
+        <v>23.77999269105106</v>
       </c>
       <c r="D15">
-        <v>11.97722265277049</v>
+        <v>5.778124340762592</v>
       </c>
       <c r="E15">
-        <v>41.93976813747312</v>
+        <v>11.90505057293832</v>
       </c>
       <c r="F15">
-        <v>83.70118603006244</v>
+        <v>49.98084492291337</v>
       </c>
       <c r="G15">
-        <v>1.916313299920919</v>
+        <v>2.047349627796285</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.37155626470092</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.109105430901421</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1073,34 +1157,40 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.77322494453298</v>
+        <v>29.98938299365462</v>
       </c>
       <c r="C16">
-        <v>25.52797788720428</v>
+        <v>23.00271204771266</v>
       </c>
       <c r="D16">
-        <v>11.5443983169956</v>
+        <v>5.728103560500506</v>
       </c>
       <c r="E16">
-        <v>40.04320168908147</v>
+        <v>11.57793924659197</v>
       </c>
       <c r="F16">
-        <v>80.30360017115548</v>
+        <v>48.56665406277664</v>
       </c>
       <c r="G16">
-        <v>1.932867294210722</v>
+        <v>2.053498711515744</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.055752869198356</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.877767251533557</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1120,34 +1210,40 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.87271381570726</v>
+        <v>29.36448092993919</v>
       </c>
       <c r="C17">
-        <v>24.83613507090051</v>
+        <v>22.55793443121987</v>
       </c>
       <c r="D17">
-        <v>11.28281053043283</v>
+        <v>6.19513540705</v>
       </c>
       <c r="E17">
-        <v>38.89516505701508</v>
+        <v>13.59355848671587</v>
       </c>
       <c r="F17">
-        <v>78.2313357347299</v>
+        <v>50.37157133274903</v>
       </c>
       <c r="G17">
-        <v>1.942763750988347</v>
+        <v>2.056209579269872</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.353811635908204</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.772518732282649</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1167,34 +1263,40 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.35481734302617</v>
+        <v>29.0326828153557</v>
       </c>
       <c r="C18">
-        <v>24.43910093995113</v>
+        <v>22.33313476896589</v>
       </c>
       <c r="D18">
-        <v>11.13348911491293</v>
+        <v>7.282784649532969</v>
       </c>
       <c r="E18">
-        <v>38.23872953363013</v>
+        <v>18.16992540045136</v>
       </c>
       <c r="F18">
-        <v>77.04173180354569</v>
+        <v>55.3707338003543</v>
       </c>
       <c r="G18">
-        <v>1.948377868415365</v>
+        <v>2.055887887705688</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.333293727927019</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.773529732633144</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1214,34 +1316,40 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.17939591197614</v>
+        <v>28.97345199471054</v>
       </c>
       <c r="C19">
-        <v>24.30475469442337</v>
+        <v>22.4033883500889</v>
       </c>
       <c r="D19">
-        <v>11.08310118995642</v>
+        <v>8.790375362995041</v>
       </c>
       <c r="E19">
-        <v>38.01699054411644</v>
+        <v>24.53208797344972</v>
       </c>
       <c r="F19">
-        <v>76.63917250456655</v>
+        <v>62.1806771869171</v>
       </c>
       <c r="G19">
-        <v>1.950266731702656</v>
+        <v>2.052752511625638</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.411514987705797</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.879578676368524</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1261,34 +1369,40 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.96854963280244</v>
+        <v>29.69820850587216</v>
       </c>
       <c r="C20">
-        <v>24.90967278290232</v>
+        <v>23.17917654727976</v>
       </c>
       <c r="D20">
-        <v>11.31053303980021</v>
+        <v>11.41151704201456</v>
       </c>
       <c r="E20">
-        <v>39.01693697066612</v>
+        <v>34.95363493126855</v>
       </c>
       <c r="F20">
-        <v>78.45164968891322</v>
+        <v>74.17869503357267</v>
       </c>
       <c r="G20">
-        <v>1.941718685537057</v>
+        <v>2.041462083656163</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4.314225926561374</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.278525854025554</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1308,34 +1422,40 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.6274717944293</v>
+        <v>31.63458094084674</v>
       </c>
       <c r="C21">
-        <v>26.95891802727061</v>
+        <v>24.75784781552005</v>
       </c>
       <c r="D21">
-        <v>12.09047941382316</v>
+        <v>12.27927442675885</v>
       </c>
       <c r="E21">
-        <v>42.43589318647892</v>
+        <v>38.09980501401512</v>
       </c>
       <c r="F21">
-        <v>84.58409143282279</v>
+        <v>79.78419766314934</v>
       </c>
       <c r="G21">
-        <v>1.911943352712931</v>
+        <v>2.027249542232134</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.857352354950227</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.805519619189777</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1355,34 +1475,40 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.38893267083115</v>
+        <v>32.85232260185697</v>
       </c>
       <c r="C22">
-        <v>28.32698059617297</v>
+        <v>25.7093163221756</v>
       </c>
       <c r="D22">
-        <v>12.61797675994057</v>
+        <v>12.77195792536501</v>
       </c>
       <c r="E22">
-        <v>44.7491161665681</v>
+        <v>39.65220401541557</v>
       </c>
       <c r="F22">
-        <v>88.66440359819417</v>
+        <v>83.08140148289172</v>
       </c>
       <c r="G22">
-        <v>1.891371730508755</v>
+        <v>2.018208876805866</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.187829086509634</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.140100061090803</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1402,34 +1528,40 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.44523670829629</v>
+        <v>32.20893271165753</v>
       </c>
       <c r="C23">
-        <v>27.59292849431206</v>
+        <v>25.16305894123705</v>
       </c>
       <c r="D23">
-        <v>12.3343483208511</v>
+        <v>12.56410863771151</v>
       </c>
       <c r="E23">
-        <v>43.50458967050593</v>
+        <v>38.83252030482961</v>
       </c>
       <c r="F23">
-        <v>86.47688851490064</v>
+        <v>81.55397815487034</v>
       </c>
       <c r="G23">
-        <v>1.902478127042289</v>
+        <v>2.022918405131028</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.014325094539056</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.96347957896903</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1449,34 +1581,40 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.92522304524128</v>
+        <v>29.68185813993916</v>
       </c>
       <c r="C24">
-        <v>24.87642435347673</v>
+        <v>23.11238178875517</v>
       </c>
       <c r="D24">
-        <v>11.29799643622048</v>
+        <v>11.66976099974378</v>
       </c>
       <c r="E24">
-        <v>38.96187313677655</v>
+        <v>35.63223609375809</v>
       </c>
       <c r="F24">
-        <v>78.35204073660913</v>
+        <v>75.24053863113274</v>
       </c>
       <c r="G24">
-        <v>1.942191390765354</v>
+        <v>2.04088703992831</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.351378196554124</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.293550467567776</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1496,34 +1634,40 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.12536297092025</v>
+        <v>26.76275660477796</v>
       </c>
       <c r="C25">
-        <v>21.97609435544717</v>
+        <v>20.79094544270774</v>
       </c>
       <c r="D25">
-        <v>10.22222143521088</v>
+        <v>10.65831984704363</v>
       </c>
       <c r="E25">
-        <v>34.20189188957374</v>
+        <v>31.97679880725834</v>
       </c>
       <c r="F25">
-        <v>69.79983567977006</v>
+        <v>68.04404505137312</v>
       </c>
       <c r="G25">
-        <v>1.982132171959193</v>
+        <v>2.060308407478158</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.628166126820007</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.571692568677724</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_9_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_0/res_line/loading_percent.xlsx
@@ -427,43 +427,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.44307359118704</v>
+        <v>14.06510505766926</v>
       </c>
       <c r="C2">
-        <v>18.84945595138836</v>
+        <v>6.308894975215158</v>
       </c>
       <c r="D2">
-        <v>10.02066305241336</v>
+        <v>3.272119936287464</v>
       </c>
       <c r="E2">
-        <v>29.10526702065993</v>
+        <v>6.80733231627563</v>
       </c>
       <c r="F2">
-        <v>63.03962927701833</v>
+        <v>34.12660784679228</v>
       </c>
       <c r="G2">
-        <v>2.074527469938671</v>
+        <v>45.83776948347001</v>
       </c>
       <c r="H2">
-        <v>3.089966362669392</v>
+        <v>4.257287850445218</v>
       </c>
       <c r="I2">
-        <v>3.037267292020123</v>
+        <v>5.041259206834757</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>14.61400242503018</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.956124619795937</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.72932148134129</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.999870472189118</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -480,43 +480,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.75403469952843</v>
+        <v>13.23134699367921</v>
       </c>
       <c r="C3">
-        <v>17.53033396951019</v>
+        <v>6.06866967883084</v>
       </c>
       <c r="D3">
-        <v>9.477274155190834</v>
+        <v>3.141402032509065</v>
       </c>
       <c r="E3">
-        <v>27.02775996347093</v>
+        <v>6.613790033188543</v>
       </c>
       <c r="F3">
-        <v>59.07048019432784</v>
+        <v>33.38249724865857</v>
       </c>
       <c r="G3">
-        <v>2.084514762941586</v>
+        <v>44.68972946513802</v>
       </c>
       <c r="H3">
-        <v>2.711583836633365</v>
+        <v>4.5032949467525</v>
       </c>
       <c r="I3">
-        <v>2.666704839883651</v>
+        <v>5.246230834177719</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>14.45672297786143</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.876855722801857</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.05523597508855</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.81611557747113</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -533,43 +533,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.65952378285824</v>
+        <v>12.69298975496817</v>
       </c>
       <c r="C4">
-        <v>16.68690558818472</v>
+        <v>5.917433283690186</v>
       </c>
       <c r="D4">
-        <v>9.126601439550928</v>
+        <v>3.060047583724399</v>
       </c>
       <c r="E4">
-        <v>25.68821643124625</v>
+        <v>6.491194543686393</v>
       </c>
       <c r="F4">
-        <v>56.50830951348823</v>
+        <v>32.91835749007371</v>
       </c>
       <c r="G4">
-        <v>2.090765124095499</v>
+        <v>43.96975729220365</v>
       </c>
       <c r="H4">
-        <v>2.473648940128331</v>
+        <v>4.659714024264876</v>
       </c>
       <c r="I4">
-        <v>2.509508808433992</v>
+        <v>5.377009069297619</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>14.35990581970669</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.826303039633578</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.618460346679207</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.701486074321997</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -586,43 +586,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.19839618377675</v>
+        <v>12.46487163668696</v>
       </c>
       <c r="C5">
-        <v>16.35017261237931</v>
+        <v>5.859060751994606</v>
       </c>
       <c r="D5">
-        <v>8.962248306382884</v>
+        <v>3.029895374995019</v>
       </c>
       <c r="E5">
-        <v>25.1250067760214</v>
+        <v>6.43931496315681</v>
       </c>
       <c r="F5">
-        <v>55.35697436933109</v>
+        <v>32.70758026583299</v>
       </c>
       <c r="G5">
-        <v>2.093373239817404</v>
+        <v>43.63829123285038</v>
       </c>
       <c r="H5">
-        <v>2.374520949779008</v>
+        <v>4.725328469859664</v>
       </c>
       <c r="I5">
-        <v>2.613255113535315</v>
+        <v>5.433850616150563</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>14.31362291048865</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.803976840250054</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.43662685274152</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.656544615903469</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -639,43 +639,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.12034009970148</v>
+        <v>12.4239000826298</v>
       </c>
       <c r="C6">
-        <v>16.31276175098225</v>
+        <v>5.854485539176186</v>
       </c>
       <c r="D6">
-        <v>8.913715193426158</v>
+        <v>3.028836217261077</v>
       </c>
       <c r="E6">
-        <v>25.02928931015711</v>
+        <v>6.429419788136699</v>
       </c>
       <c r="F6">
-        <v>55.07122712887607</v>
+        <v>32.64802928495252</v>
       </c>
       <c r="G6">
-        <v>2.093843404499031</v>
+        <v>43.54074773740948</v>
       </c>
       <c r="H6">
-        <v>2.357148475066212</v>
+        <v>4.736917282215979</v>
       </c>
       <c r="I6">
-        <v>2.635588437125068</v>
+        <v>5.44626822882252</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>14.29763882341915</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.798709994927463</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.408419599797545</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.651727738315972</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -692,43 +692,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.65169548959532</v>
+        <v>12.68269228163635</v>
       </c>
       <c r="C7">
-        <v>16.73292013436325</v>
+        <v>5.930605865703779</v>
       </c>
       <c r="D7">
-        <v>9.067926423508622</v>
+        <v>3.070291173606062</v>
       </c>
       <c r="E7">
-        <v>25.67736305216642</v>
+        <v>6.487189237729495</v>
       </c>
       <c r="F7">
-        <v>56.24481937174074</v>
+        <v>32.84926646288005</v>
       </c>
       <c r="G7">
-        <v>2.090896024981767</v>
+        <v>43.85080118340656</v>
       </c>
       <c r="H7">
-        <v>2.470075046960208</v>
+        <v>4.662237268752856</v>
       </c>
       <c r="I7">
-        <v>2.524493452909088</v>
+        <v>5.385471149226329</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>14.33673989041984</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.821857105027163</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.622259863635071</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.708090400212797</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -745,43 +745,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.870143067299</v>
+        <v>13.77416134539979</v>
       </c>
       <c r="C8">
-        <v>18.46235242138411</v>
+        <v>6.244662730907613</v>
       </c>
       <c r="D8">
-        <v>9.765799130928215</v>
+        <v>3.240661586461362</v>
       </c>
       <c r="E8">
-        <v>28.39744764467337</v>
+        <v>6.737190238910129</v>
       </c>
       <c r="F8">
-        <v>61.38995501941691</v>
+        <v>33.7866025819976</v>
       </c>
       <c r="G8">
-        <v>2.078075537225312</v>
+        <v>45.29871289456621</v>
       </c>
       <c r="H8">
-        <v>2.957617360055809</v>
+        <v>4.343088120527143</v>
       </c>
       <c r="I8">
-        <v>2.908925381665187</v>
+        <v>5.120658117489641</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>14.53058941221476</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.923856088770586</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.50928323230934</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.946095383481208</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -798,43 +798,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.77635781228673</v>
+        <v>15.71284518057224</v>
       </c>
       <c r="C9">
-        <v>21.51752086636726</v>
+        <v>6.80729577646801</v>
       </c>
       <c r="D9">
-        <v>11.09435833615976</v>
+        <v>3.546883754407277</v>
       </c>
       <c r="E9">
-        <v>33.24354161310295</v>
+        <v>7.202175849497329</v>
       </c>
       <c r="F9">
-        <v>70.89697344570428</v>
+        <v>35.67310045304805</v>
       </c>
       <c r="G9">
-        <v>2.053570185398751</v>
+        <v>48.20142497769632</v>
       </c>
       <c r="H9">
-        <v>3.877518438033591</v>
+        <v>3.756048474494799</v>
       </c>
       <c r="I9">
-        <v>3.818003966742009</v>
+        <v>4.626984728674308</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>14.94719076538099</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.116058277264609</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.05741759498994</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.3844982216456</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -851,43 +851,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.36896984993525</v>
+        <v>16.98733976357979</v>
       </c>
       <c r="C10">
-        <v>23.60291155827736</v>
+        <v>7.232904430857201</v>
       </c>
       <c r="D10">
-        <v>11.73454473692673</v>
+        <v>3.762239287781317</v>
       </c>
       <c r="E10">
-        <v>35.62103610224544</v>
+        <v>7.437607573241271</v>
       </c>
       <c r="F10">
-        <v>76.20990935265392</v>
+        <v>36.68285826577396</v>
       </c>
       <c r="G10">
-        <v>2.036709757866656</v>
+        <v>49.72435363195387</v>
       </c>
       <c r="H10">
-        <v>4.482358605421413</v>
+        <v>3.376154666801476</v>
       </c>
       <c r="I10">
-        <v>4.449622519871673</v>
+        <v>4.298487998824559</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>15.14427530627029</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.206823480509083</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.09645114597016</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.634124096722892</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -904,43 +904,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.36121202343197</v>
+        <v>17.4144576583691</v>
       </c>
       <c r="C11">
-        <v>24.30366210427836</v>
+        <v>7.678476017556322</v>
       </c>
       <c r="D11">
-        <v>9.970562816033523</v>
+        <v>3.816283105549543</v>
       </c>
       <c r="E11">
-        <v>29.02521488677462</v>
+        <v>6.855468934048872</v>
       </c>
       <c r="F11">
-        <v>69.78476296936714</v>
+        <v>34.49415547706983</v>
       </c>
       <c r="G11">
-        <v>2.03570407727512</v>
+        <v>46.27503389709238</v>
       </c>
       <c r="H11">
-        <v>4.790747882991368</v>
+        <v>3.975979148853099</v>
       </c>
       <c r="I11">
-        <v>4.510909130059678</v>
+        <v>4.229329756791367</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.38360561120001</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.949497704563992</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.63139060110016</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.214423039412488</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -957,43 +957,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.68585877720369</v>
+        <v>17.52137132490764</v>
       </c>
       <c r="C12">
-        <v>24.44128593523203</v>
+        <v>7.983635206315219</v>
       </c>
       <c r="D12">
-        <v>8.470649040072542</v>
+        <v>3.800040860254384</v>
       </c>
       <c r="E12">
-        <v>23.0426619106675</v>
+        <v>6.394847319921102</v>
       </c>
       <c r="F12">
-        <v>63.59460163662632</v>
+        <v>32.5283587076438</v>
       </c>
       <c r="G12">
-        <v>2.037548408334782</v>
+        <v>43.19860822757578</v>
       </c>
       <c r="H12">
-        <v>5.512775492837027</v>
+        <v>5.048095394147619</v>
       </c>
       <c r="I12">
-        <v>4.456295562001463</v>
+        <v>4.220485699198792</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.74075956564114</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.78939785090925</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.86737561176817</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.808749471857796</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1010,43 +1010,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.52803904234584</v>
+        <v>17.38324095160098</v>
       </c>
       <c r="C13">
-        <v>24.22003956114179</v>
+        <v>8.219440716054047</v>
       </c>
       <c r="D13">
-        <v>7.009883965657012</v>
+        <v>3.741888026688593</v>
       </c>
       <c r="E13">
-        <v>17.05336036085701</v>
+        <v>6.006839606600063</v>
       </c>
       <c r="F13">
-        <v>56.73539812628097</v>
+        <v>30.50519726871209</v>
       </c>
       <c r="G13">
-        <v>2.041798004963339</v>
+        <v>40.03101245356423</v>
       </c>
       <c r="H13">
-        <v>6.450362237943956</v>
+        <v>6.297600252310434</v>
       </c>
       <c r="I13">
-        <v>4.308155851271346</v>
+        <v>4.269983197764249</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.11627322891884</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.691890017430388</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.90241021985043</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.397163742277474</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1063,43 +1063,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.20074615630609</v>
+        <v>17.17218120842997</v>
       </c>
       <c r="C14">
-        <v>23.91840789243268</v>
+        <v>8.36325820059924</v>
       </c>
       <c r="D14">
-        <v>6.025607134096393</v>
+        <v>3.683848853167134</v>
       </c>
       <c r="E14">
-        <v>12.91878041738623</v>
+        <v>5.789864738671686</v>
       </c>
       <c r="F14">
-        <v>51.49898527829699</v>
+        <v>29.05158085144935</v>
       </c>
       <c r="G14">
-        <v>2.045765259257151</v>
+        <v>37.74857548594435</v>
       </c>
       <c r="H14">
-        <v>7.201276089694248</v>
+        <v>7.22855379321889</v>
       </c>
       <c r="I14">
-        <v>4.16614545595082</v>
+        <v>4.333074130844333</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.68711403120014</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.663045319354099</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.8384417877894</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.111902329607644</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1116,43 +1116,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.01509405687257</v>
+        <v>17.065593427717</v>
       </c>
       <c r="C15">
-        <v>23.77999269105106</v>
+        <v>8.387014650229116</v>
       </c>
       <c r="D15">
-        <v>5.778124340762592</v>
+        <v>3.664471624200087</v>
       </c>
       <c r="E15">
-        <v>11.90505057293832</v>
+        <v>5.741705689190518</v>
       </c>
       <c r="F15">
-        <v>49.98084492291337</v>
+        <v>28.66533593718645</v>
       </c>
       <c r="G15">
-        <v>2.047349627796285</v>
+        <v>37.13869170633419</v>
       </c>
       <c r="H15">
-        <v>7.37155626470092</v>
+        <v>7.452875497819007</v>
       </c>
       <c r="I15">
-        <v>4.109105430901421</v>
+        <v>4.36510075785751</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.5793760186124</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.659339765295813</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.78127476315311</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.041770691612684</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1169,43 +1169,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.98938299365462</v>
+        <v>16.55930762879785</v>
       </c>
       <c r="C16">
-        <v>23.00271204771266</v>
+        <v>8.182731832719096</v>
       </c>
       <c r="D16">
-        <v>5.728103560500506</v>
+        <v>3.590008323051461</v>
       </c>
       <c r="E16">
-        <v>11.57793924659197</v>
+        <v>5.70626824924527</v>
       </c>
       <c r="F16">
-        <v>48.56665406277664</v>
+        <v>28.56137674595188</v>
       </c>
       <c r="G16">
-        <v>2.053498711515744</v>
+        <v>36.97850774997434</v>
       </c>
       <c r="H16">
-        <v>7.055752869198356</v>
+        <v>7.317527073234846</v>
       </c>
       <c r="I16">
-        <v>3.877767251533557</v>
+        <v>4.500096124995821</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.60504472108595</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.634744015980669</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.35734601099239</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.011459008818604</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1222,43 +1222,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.36448092993919</v>
+        <v>16.28024192466454</v>
       </c>
       <c r="C17">
-        <v>22.55793443121987</v>
+        <v>7.941716890523103</v>
       </c>
       <c r="D17">
-        <v>6.19513540705</v>
+        <v>3.564715737664871</v>
       </c>
       <c r="E17">
-        <v>13.59355848671587</v>
+        <v>5.783373945873133</v>
       </c>
       <c r="F17">
-        <v>50.37157133274903</v>
+        <v>29.25674538870685</v>
       </c>
       <c r="G17">
-        <v>2.056209579269872</v>
+        <v>38.07575883039216</v>
       </c>
       <c r="H17">
-        <v>6.353811635908204</v>
+        <v>6.700294160788587</v>
       </c>
       <c r="I17">
-        <v>3.772518732282649</v>
+        <v>4.570963751689398</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>12.85011191681394</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.624105623595184</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.06034025898363</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.139591446124275</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1275,43 +1275,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.0326828153557</v>
+        <v>16.17593076587333</v>
       </c>
       <c r="C18">
-        <v>22.33313476896589</v>
+        <v>7.641034321509391</v>
       </c>
       <c r="D18">
-        <v>7.282784649532969</v>
+        <v>3.570117235452315</v>
       </c>
       <c r="E18">
-        <v>18.16992540045136</v>
+        <v>6.029454899061316</v>
       </c>
       <c r="F18">
-        <v>55.3707338003543</v>
+        <v>30.78734535188187</v>
       </c>
       <c r="G18">
-        <v>2.055887887705688</v>
+        <v>40.49309948154198</v>
       </c>
       <c r="H18">
-        <v>5.333293727927019</v>
+        <v>5.659894691007842</v>
       </c>
       <c r="I18">
-        <v>3.773529732633144</v>
+        <v>4.583598250563234</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.33854418337025</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.665566945478751</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.84130174938744</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.42771423108984</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1328,43 +1328,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.97345199471054</v>
+        <v>16.20870215234283</v>
       </c>
       <c r="C19">
-        <v>22.4033883500889</v>
+        <v>7.374500217726873</v>
       </c>
       <c r="D19">
-        <v>8.790375362995041</v>
+        <v>3.6139082234033</v>
       </c>
       <c r="E19">
-        <v>24.53208797344972</v>
+        <v>6.46774267227595</v>
       </c>
       <c r="F19">
-        <v>62.1806771869171</v>
+        <v>32.80229744958862</v>
       </c>
       <c r="G19">
-        <v>2.052752511625638</v>
+        <v>43.65493608792558</v>
       </c>
       <c r="H19">
-        <v>4.411514987705797</v>
+        <v>4.52384773195081</v>
       </c>
       <c r="I19">
-        <v>3.879578676368524</v>
+        <v>4.559741847163447</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.96919116174252</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.800511888621328</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.71609290877447</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.848996472484554</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1381,43 +1381,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.69820850587216</v>
+        <v>16.64275660086033</v>
       </c>
       <c r="C20">
-        <v>23.17917654727976</v>
+        <v>7.162910541254057</v>
       </c>
       <c r="D20">
-        <v>11.41151704201456</v>
+        <v>3.733656934027333</v>
       </c>
       <c r="E20">
-        <v>34.95363493126855</v>
+        <v>7.364068025012534</v>
       </c>
       <c r="F20">
-        <v>74.17869503357267</v>
+        <v>36.22299483849392</v>
       </c>
       <c r="G20">
-        <v>2.041462083656163</v>
+        <v>48.99421883108078</v>
       </c>
       <c r="H20">
-        <v>4.314225926561374</v>
+        <v>3.478997007153221</v>
       </c>
       <c r="I20">
-        <v>4.278525854025554</v>
+        <v>4.408379422200412</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>15.02329376664596</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.170228135373891</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.84660118376708</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.585909066546527</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1434,43 +1434,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.63458094084674</v>
+        <v>17.60314488967096</v>
       </c>
       <c r="C21">
-        <v>24.75784781552005</v>
+        <v>7.437324360766709</v>
       </c>
       <c r="D21">
-        <v>12.27927442675885</v>
+        <v>3.898447314728777</v>
       </c>
       <c r="E21">
-        <v>38.09980501401512</v>
+        <v>7.672108924356806</v>
       </c>
       <c r="F21">
-        <v>79.78419766314934</v>
+        <v>37.48570578254825</v>
       </c>
       <c r="G21">
-        <v>2.027249542232134</v>
+        <v>50.92507649809882</v>
       </c>
       <c r="H21">
-        <v>4.857352354950227</v>
+        <v>3.152876673274757</v>
       </c>
       <c r="I21">
-        <v>4.805519619189777</v>
+        <v>4.14633465158162</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>15.33687889989804</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.300891777600224</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.59144919728455</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.867373757252718</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1487,43 +1487,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.85232260185697</v>
+        <v>18.20635285180175</v>
       </c>
       <c r="C22">
-        <v>25.7093163221756</v>
+        <v>7.611060985388321</v>
       </c>
       <c r="D22">
-        <v>12.77195792536501</v>
+        <v>3.99055985012112</v>
       </c>
       <c r="E22">
-        <v>39.65220401541557</v>
+        <v>7.829530121816125</v>
       </c>
       <c r="F22">
-        <v>83.08140148289172</v>
+        <v>38.21986449531011</v>
       </c>
       <c r="G22">
-        <v>2.018208876805866</v>
+        <v>52.05168315252219</v>
       </c>
       <c r="H22">
-        <v>5.187829086509634</v>
+        <v>2.954911296435297</v>
       </c>
       <c r="I22">
-        <v>5.140100061090803</v>
+        <v>3.972429419438719</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>15.51829251817908</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.369197410290926</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.05766207282096</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.008206909993604</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1540,43 +1540,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.20893271165753</v>
+        <v>17.89327491028746</v>
       </c>
       <c r="C23">
-        <v>25.16305894123705</v>
+        <v>7.504457827707149</v>
       </c>
       <c r="D23">
-        <v>12.56410863771151</v>
+        <v>3.931607339626766</v>
       </c>
       <c r="E23">
-        <v>38.83252030482961</v>
+        <v>7.749136938614846</v>
       </c>
       <c r="F23">
-        <v>81.55397815487034</v>
+        <v>37.89653665985571</v>
       </c>
       <c r="G23">
-        <v>2.022918405131028</v>
+        <v>51.56717313831414</v>
       </c>
       <c r="H23">
-        <v>5.014325094539056</v>
+        <v>3.058602313425717</v>
       </c>
       <c r="I23">
-        <v>4.96347957896903</v>
+        <v>4.055205837516958</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>15.44568490132298</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.337202800652165</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.80526627523457</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.926139602924805</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1593,43 +1593,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.68185813993916</v>
+        <v>16.6478737750528</v>
       </c>
       <c r="C24">
-        <v>23.11238178875517</v>
+        <v>7.11626462241958</v>
       </c>
       <c r="D24">
-        <v>11.66976099974378</v>
+        <v>3.719818510481084</v>
       </c>
       <c r="E24">
-        <v>35.63223609375809</v>
+        <v>7.431944599230935</v>
       </c>
       <c r="F24">
-        <v>75.24053863113274</v>
+        <v>36.54621876713781</v>
       </c>
       <c r="G24">
-        <v>2.04088703992831</v>
+        <v>49.51483236592602</v>
       </c>
       <c r="H24">
-        <v>4.351378196554124</v>
+        <v>3.461493859038429</v>
       </c>
       <c r="I24">
-        <v>4.293550467567776</v>
+        <v>4.39156527670162</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>15.13208892106165</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.20615345815286</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.81811112719806</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.620888154459569</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1646,43 +1646,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.76275660477796</v>
+        <v>15.20033225408193</v>
       </c>
       <c r="C25">
-        <v>20.79094544270774</v>
+        <v>6.681569830642689</v>
       </c>
       <c r="D25">
-        <v>10.65831984704363</v>
+        <v>3.482322428362618</v>
       </c>
       <c r="E25">
-        <v>31.97679880725834</v>
+        <v>7.074382435571453</v>
       </c>
       <c r="F25">
-        <v>68.04404505137312</v>
+        <v>35.05967636939739</v>
       </c>
       <c r="G25">
-        <v>2.060308407478158</v>
+        <v>47.24148201868657</v>
       </c>
       <c r="H25">
-        <v>3.628166126820007</v>
+        <v>3.9132375598701</v>
       </c>
       <c r="I25">
-        <v>3.571692568677724</v>
+        <v>4.770191593901006</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>14.79610357682358</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.058668388815474</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.66740324206201</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.279758642624876</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_9_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.06510505766926</v>
+        <v>13.6669975691445</v>
       </c>
       <c r="C2">
-        <v>6.308894975215158</v>
+        <v>6.391638685462149</v>
       </c>
       <c r="D2">
-        <v>3.272119936287464</v>
+        <v>3.79058366239708</v>
       </c>
       <c r="E2">
-        <v>6.80733231627563</v>
+        <v>6.756858354031194</v>
       </c>
       <c r="F2">
-        <v>34.12660784679228</v>
+        <v>30.96300192995858</v>
       </c>
       <c r="G2">
-        <v>45.83776948347001</v>
+        <v>40.5907328320291</v>
       </c>
       <c r="H2">
-        <v>4.257287850445218</v>
+        <v>3.948233016771808</v>
       </c>
       <c r="I2">
-        <v>5.041259206834757</v>
+        <v>4.654568948671593</v>
       </c>
       <c r="J2">
-        <v>14.61400242503018</v>
+        <v>13.34765769363088</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.956124619795937</v>
+        <v>16.79917035229693</v>
       </c>
       <c r="M2">
-        <v>10.72932148134129</v>
+        <v>16.09265456029929</v>
       </c>
       <c r="N2">
-        <v>5.999870472189118</v>
+        <v>5.77100703681128</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.05802415079148</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.514500267997657</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.23134699367921</v>
+        <v>12.83717681795118</v>
       </c>
       <c r="C3">
-        <v>6.06866967883084</v>
+        <v>6.032809568153224</v>
       </c>
       <c r="D3">
-        <v>3.141402032509065</v>
+        <v>3.623038959343416</v>
       </c>
       <c r="E3">
-        <v>6.613790033188543</v>
+        <v>6.585724590483924</v>
       </c>
       <c r="F3">
-        <v>33.38249724865857</v>
+        <v>30.49249027547859</v>
       </c>
       <c r="G3">
-        <v>44.68972946513802</v>
+        <v>39.98932820693877</v>
       </c>
       <c r="H3">
-        <v>4.5032949467525</v>
+        <v>4.170471479138795</v>
       </c>
       <c r="I3">
-        <v>5.246230834177719</v>
+        <v>4.831702857159444</v>
       </c>
       <c r="J3">
-        <v>14.45672297786143</v>
+        <v>13.23542498561855</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.876855722801857</v>
+        <v>16.78749043367868</v>
       </c>
       <c r="M3">
-        <v>10.05523597508855</v>
+        <v>15.94454211079134</v>
       </c>
       <c r="N3">
-        <v>5.81611557747113</v>
+        <v>5.711523872357456</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.36500237959998</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.31112533418708</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.69298975496817</v>
+        <v>12.29929984445997</v>
       </c>
       <c r="C4">
-        <v>5.917433283690186</v>
+        <v>5.805677434264137</v>
       </c>
       <c r="D4">
-        <v>3.060047583724399</v>
+        <v>3.5183040670872</v>
       </c>
       <c r="E4">
-        <v>6.491194543686393</v>
+        <v>6.477456355990527</v>
       </c>
       <c r="F4">
-        <v>32.91835749007371</v>
+        <v>30.19984624135702</v>
       </c>
       <c r="G4">
-        <v>43.96975729220365</v>
+        <v>39.61717876423339</v>
       </c>
       <c r="H4">
-        <v>4.659714024264876</v>
+        <v>4.311896638595383</v>
       </c>
       <c r="I4">
-        <v>5.377009069297619</v>
+        <v>4.945031476986441</v>
       </c>
       <c r="J4">
-        <v>14.35990581970669</v>
+        <v>13.16465916093866</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.826303039633578</v>
+        <v>16.77407544581055</v>
       </c>
       <c r="M4">
-        <v>9.618460346679207</v>
+        <v>15.86619203192459</v>
       </c>
       <c r="N4">
-        <v>5.701486074321997</v>
+        <v>5.673415875131278</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.915920112567516</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.184408229965746</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.46487163668696</v>
+        <v>12.07106383356017</v>
       </c>
       <c r="C5">
-        <v>5.859060751994606</v>
+        <v>5.717684030170096</v>
       </c>
       <c r="D5">
-        <v>3.029895374995019</v>
+        <v>3.478075814750118</v>
       </c>
       <c r="E5">
-        <v>6.43931496315681</v>
+        <v>6.431715644452018</v>
       </c>
       <c r="F5">
-        <v>32.70758026583299</v>
+        <v>30.06278284921881</v>
       </c>
       <c r="G5">
-        <v>43.63829123285038</v>
+        <v>39.43600422634178</v>
       </c>
       <c r="H5">
-        <v>4.725328469859664</v>
+        <v>4.371232635352273</v>
       </c>
       <c r="I5">
-        <v>5.433850616150563</v>
+        <v>4.994985709665591</v>
       </c>
       <c r="J5">
-        <v>14.31362291048865</v>
+        <v>13.12952156579687</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.803976840250054</v>
+        <v>16.75577253913909</v>
       </c>
       <c r="M5">
-        <v>9.43662685274152</v>
+        <v>15.82949108452252</v>
       </c>
       <c r="N5">
-        <v>5.656544615903469</v>
+        <v>5.656503440382775</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.728692093055381</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.134254508079469</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.4239000826298</v>
+        <v>12.03030898602932</v>
       </c>
       <c r="C6">
-        <v>5.854485539176186</v>
+        <v>5.710621098475423</v>
       </c>
       <c r="D6">
-        <v>3.028836217261077</v>
+        <v>3.474873175159255</v>
       </c>
       <c r="E6">
-        <v>6.429419788136699</v>
+        <v>6.423045373217895</v>
       </c>
       <c r="F6">
-        <v>32.64802928495252</v>
+        <v>30.01926479016744</v>
       </c>
       <c r="G6">
-        <v>43.54074773740948</v>
+        <v>39.37061396309159</v>
       </c>
       <c r="H6">
-        <v>4.736917282215979</v>
+        <v>4.381694306526087</v>
       </c>
       <c r="I6">
-        <v>5.44626822882252</v>
+        <v>5.006674902117333</v>
       </c>
       <c r="J6">
-        <v>14.29763882341915</v>
+        <v>13.11651504726671</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.798709994927463</v>
+        <v>16.73889823998904</v>
       </c>
       <c r="M6">
-        <v>9.408419599797545</v>
+        <v>15.81381047192715</v>
       </c>
       <c r="N6">
-        <v>5.651727738315972</v>
+        <v>5.652470519475779</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.699306409301842</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.128217699358609</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.68269228163635</v>
+        <v>12.2910180829179</v>
       </c>
       <c r="C7">
-        <v>5.930605865703779</v>
+        <v>5.820682142359299</v>
       </c>
       <c r="D7">
-        <v>3.070291173606062</v>
+        <v>3.534768229698632</v>
       </c>
       <c r="E7">
-        <v>6.487189237729495</v>
+        <v>6.475536753323317</v>
       </c>
       <c r="F7">
-        <v>32.84926646288005</v>
+        <v>30.11080543238744</v>
       </c>
       <c r="G7">
-        <v>43.85080118340656</v>
+        <v>39.5607233810295</v>
       </c>
       <c r="H7">
-        <v>4.662237268752856</v>
+        <v>4.314872898826717</v>
       </c>
       <c r="I7">
-        <v>5.385471149226329</v>
+        <v>4.955192645218887</v>
       </c>
       <c r="J7">
-        <v>14.33673989041984</v>
+        <v>13.09546785784614</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.821857105027163</v>
+        <v>16.7196624693521</v>
       </c>
       <c r="M7">
-        <v>9.622259863635071</v>
+        <v>15.82572395206563</v>
       </c>
       <c r="N7">
-        <v>5.708090400212797</v>
+        <v>5.66896330627985</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.917503335331496</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.190540251888915</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.77416134539979</v>
+        <v>13.38257507534027</v>
       </c>
       <c r="C8">
-        <v>6.244662730907613</v>
+        <v>6.281577304522788</v>
       </c>
       <c r="D8">
-        <v>3.240661586461362</v>
+        <v>3.76908149858632</v>
       </c>
       <c r="E8">
-        <v>6.737190238910129</v>
+        <v>6.699834996824773</v>
       </c>
       <c r="F8">
-        <v>33.7866025819976</v>
+        <v>30.62936814055182</v>
       </c>
       <c r="G8">
-        <v>45.29871289456621</v>
+        <v>40.39827719582933</v>
       </c>
       <c r="H8">
-        <v>4.343088120527143</v>
+        <v>4.02794981454583</v>
       </c>
       <c r="I8">
-        <v>5.120658117489641</v>
+        <v>4.727966597280095</v>
       </c>
       <c r="J8">
-        <v>14.53058941221476</v>
+        <v>13.12437602676663</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.923856088770586</v>
+        <v>16.69698877247167</v>
       </c>
       <c r="M8">
-        <v>10.50928323230934</v>
+        <v>15.95781328018397</v>
       </c>
       <c r="N8">
-        <v>5.946095383481208</v>
+        <v>5.743596488273582</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.82640140375308</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.454546827686435</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.71284518057224</v>
+        <v>15.30175195235836</v>
       </c>
       <c r="C9">
-        <v>6.80729577646801</v>
+        <v>7.111614194454932</v>
       </c>
       <c r="D9">
-        <v>3.546883754407277</v>
+        <v>4.167688200364413</v>
       </c>
       <c r="E9">
-        <v>7.202175849497329</v>
+        <v>7.112683344984977</v>
       </c>
       <c r="F9">
-        <v>35.67310045304805</v>
+        <v>31.82407819101941</v>
       </c>
       <c r="G9">
-        <v>48.20142497769632</v>
+        <v>42.02609070978214</v>
       </c>
       <c r="H9">
-        <v>3.756048474494799</v>
+        <v>3.4987878247886</v>
       </c>
       <c r="I9">
-        <v>4.626984728674308</v>
+        <v>4.301105470870151</v>
       </c>
       <c r="J9">
-        <v>14.94719076538099</v>
+        <v>13.37755747875731</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.116058277264609</v>
+        <v>16.72683968341957</v>
       </c>
       <c r="M9">
-        <v>12.05741759498994</v>
+        <v>16.41174706606475</v>
       </c>
       <c r="N9">
-        <v>6.3844982216456</v>
+        <v>5.886537980715633</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.41777485565683</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.942569961860818</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.98733976357979</v>
+        <v>16.56579617526407</v>
       </c>
       <c r="C10">
-        <v>7.232904430857201</v>
+        <v>7.699717804862595</v>
       </c>
       <c r="D10">
-        <v>3.762239287781317</v>
+        <v>4.473551328655937</v>
       </c>
       <c r="E10">
-        <v>7.437607573241271</v>
+        <v>7.325488967291233</v>
       </c>
       <c r="F10">
-        <v>36.68285826577396</v>
+        <v>32.25561786734878</v>
       </c>
       <c r="G10">
-        <v>49.72435363195387</v>
+        <v>43.03013451547807</v>
       </c>
       <c r="H10">
-        <v>3.376154666801476</v>
+        <v>3.162084763979826</v>
       </c>
       <c r="I10">
-        <v>4.298487998824559</v>
+        <v>4.022756478253392</v>
       </c>
       <c r="J10">
-        <v>15.14427530627029</v>
+        <v>13.21051357714458</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.206823480509083</v>
+        <v>16.51122900796242</v>
       </c>
       <c r="M10">
-        <v>13.09645114597016</v>
+        <v>16.59359997653259</v>
       </c>
       <c r="N10">
-        <v>6.634124096722892</v>
+        <v>5.947414152143157</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.47394317140146</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.223141725337285</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.4144576583691</v>
+        <v>17.03958548089405</v>
       </c>
       <c r="C11">
-        <v>7.678476017556322</v>
+        <v>8.176376089886283</v>
       </c>
       <c r="D11">
-        <v>3.816283105549543</v>
+        <v>4.555560987869756</v>
       </c>
       <c r="E11">
-        <v>6.855468934048872</v>
+        <v>6.783095375138831</v>
       </c>
       <c r="F11">
-        <v>34.49415547706983</v>
+        <v>30.08211636972992</v>
       </c>
       <c r="G11">
-        <v>46.27503389709238</v>
+        <v>40.6329934182287</v>
       </c>
       <c r="H11">
-        <v>3.975979148853099</v>
+        <v>3.806671003615526</v>
       </c>
       <c r="I11">
-        <v>4.229329756791367</v>
+        <v>3.971152763563853</v>
       </c>
       <c r="J11">
-        <v>14.38360561120001</v>
+        <v>12.10898172873032</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.949497704563992</v>
+        <v>15.30396190141705</v>
       </c>
       <c r="M11">
-        <v>13.63139060110016</v>
+        <v>15.55367050084471</v>
       </c>
       <c r="N11">
-        <v>6.214423039412488</v>
+        <v>5.749816667476608</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.97087986434671</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.763111401608112</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.52137132490764</v>
+        <v>17.18525135671724</v>
       </c>
       <c r="C12">
-        <v>7.983635206315219</v>
+        <v>8.454249834873035</v>
       </c>
       <c r="D12">
-        <v>3.800040860254384</v>
+        <v>4.522677129793422</v>
       </c>
       <c r="E12">
-        <v>6.394847319921102</v>
+        <v>6.351540021772266</v>
       </c>
       <c r="F12">
-        <v>32.5283587076438</v>
+        <v>28.34656566874941</v>
       </c>
       <c r="G12">
-        <v>43.19860822757578</v>
+        <v>38.37144888750093</v>
       </c>
       <c r="H12">
-        <v>5.048095394147619</v>
+        <v>4.9147567977602</v>
       </c>
       <c r="I12">
-        <v>4.220485699198792</v>
+        <v>3.963523432054156</v>
       </c>
       <c r="J12">
-        <v>13.74075956564114</v>
+        <v>11.45294723150106</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.78939785090925</v>
+        <v>14.47498221229599</v>
       </c>
       <c r="M12">
-        <v>13.86737561176817</v>
+        <v>14.74531842421609</v>
       </c>
       <c r="N12">
-        <v>5.808749471857796</v>
+        <v>5.64693028847009</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.1747818901951</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.31539258154048</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.38324095160098</v>
+        <v>17.08230028273246</v>
       </c>
       <c r="C13">
-        <v>8.219440716054047</v>
+        <v>8.638275457553098</v>
       </c>
       <c r="D13">
-        <v>3.741888026688593</v>
+        <v>4.395251666850709</v>
       </c>
       <c r="E13">
-        <v>6.006839606600063</v>
+        <v>5.98733221319976</v>
       </c>
       <c r="F13">
-        <v>30.50519726871209</v>
+        <v>26.80943675196701</v>
       </c>
       <c r="G13">
-        <v>40.03101245356423</v>
+        <v>35.82770603794178</v>
       </c>
       <c r="H13">
-        <v>6.297600252310434</v>
+        <v>6.1835929550346</v>
       </c>
       <c r="I13">
-        <v>4.269983197764249</v>
+        <v>4.002818498054425</v>
       </c>
       <c r="J13">
-        <v>13.11627322891884</v>
+        <v>11.11050248978999</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.691890017430388</v>
+        <v>13.84384156439908</v>
       </c>
       <c r="M13">
-        <v>13.90241021985043</v>
+        <v>14.05651614681112</v>
       </c>
       <c r="N13">
-        <v>5.397163742277474</v>
+        <v>5.605359318843382</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.18103959234783</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.85573542816098</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.17218120842997</v>
+        <v>16.89492766528244</v>
       </c>
       <c r="C14">
-        <v>8.36325820059924</v>
+        <v>8.733692611501366</v>
       </c>
       <c r="D14">
-        <v>3.683848853167134</v>
+        <v>4.265265145315671</v>
       </c>
       <c r="E14">
-        <v>5.789864738671686</v>
+        <v>5.786603586450471</v>
       </c>
       <c r="F14">
-        <v>29.05158085144935</v>
+        <v>25.80488480570395</v>
       </c>
       <c r="G14">
-        <v>37.74857548594435</v>
+        <v>33.91700657924532</v>
       </c>
       <c r="H14">
-        <v>7.22855379321889</v>
+        <v>7.122102127023937</v>
       </c>
       <c r="I14">
-        <v>4.333074130844333</v>
+        <v>4.054229093155175</v>
       </c>
       <c r="J14">
-        <v>12.68711403120014</v>
+        <v>10.98255026321186</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.663045319354099</v>
+        <v>13.47743018700921</v>
       </c>
       <c r="M14">
-        <v>13.8384417877894</v>
+        <v>13.62764439485833</v>
       </c>
       <c r="N14">
-        <v>5.111902329607644</v>
+        <v>5.611401026440467</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.09755274788986</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.534484030818851</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.065593427717</v>
+        <v>16.79371271001041</v>
       </c>
       <c r="C15">
-        <v>8.387014650229116</v>
+        <v>8.743376299714626</v>
       </c>
       <c r="D15">
-        <v>3.664471624200087</v>
+        <v>4.218093953889349</v>
       </c>
       <c r="E15">
-        <v>5.741705689190518</v>
+        <v>5.743059670100608</v>
       </c>
       <c r="F15">
-        <v>28.66533593718645</v>
+        <v>25.57606489387329</v>
       </c>
       <c r="G15">
-        <v>37.13869170633419</v>
+        <v>33.37843101159761</v>
       </c>
       <c r="H15">
-        <v>7.452875497819007</v>
+        <v>7.346430710323746</v>
       </c>
       <c r="I15">
-        <v>4.36510075785751</v>
+        <v>4.081537221609192</v>
       </c>
       <c r="J15">
-        <v>12.5793760186124</v>
+        <v>10.99192634493488</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.659339765295813</v>
+        <v>13.40770901447003</v>
       </c>
       <c r="M15">
-        <v>13.78127476315311</v>
+        <v>13.5359693346153</v>
       </c>
       <c r="N15">
-        <v>5.041770691612684</v>
+        <v>5.615608065933327</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.03592964551505</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.454556039251158</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.55930762879785</v>
+        <v>16.28054605155687</v>
       </c>
       <c r="C16">
-        <v>8.182731832719096</v>
+        <v>8.521878850990051</v>
       </c>
       <c r="D16">
-        <v>3.590008323051461</v>
+        <v>4.061281436597511</v>
       </c>
       <c r="E16">
-        <v>5.70626824924527</v>
+        <v>5.71326423043921</v>
       </c>
       <c r="F16">
-        <v>28.56137674595188</v>
+        <v>25.85190421655707</v>
       </c>
       <c r="G16">
-        <v>36.97850774997434</v>
+        <v>33.04008480475545</v>
       </c>
       <c r="H16">
-        <v>7.317527073234846</v>
+        <v>7.193983198885896</v>
       </c>
       <c r="I16">
-        <v>4.500096124995821</v>
+        <v>4.193708578110708</v>
       </c>
       <c r="J16">
-        <v>12.60504472108595</v>
+        <v>11.39245915607667</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.634744015980669</v>
+        <v>13.64016028811479</v>
       </c>
       <c r="M16">
-        <v>13.35734601099239</v>
+        <v>13.70274312692663</v>
       </c>
       <c r="N16">
-        <v>5.011459008818604</v>
+        <v>5.591221148460438</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.61717265831536</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.417242327123544</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.28024192466454</v>
+        <v>15.98401702437545</v>
       </c>
       <c r="C17">
-        <v>7.941716890523103</v>
+        <v>8.288727408135225</v>
       </c>
       <c r="D17">
-        <v>3.564715737664871</v>
+        <v>4.020723961556148</v>
       </c>
       <c r="E17">
-        <v>5.783373945873133</v>
+        <v>5.783432196144805</v>
       </c>
       <c r="F17">
-        <v>29.25674538870685</v>
+        <v>26.57034658290026</v>
       </c>
       <c r="G17">
-        <v>38.07575883039216</v>
+        <v>33.84191591423746</v>
       </c>
       <c r="H17">
-        <v>6.700294160788587</v>
+        <v>6.556825664770336</v>
       </c>
       <c r="I17">
-        <v>4.570963751689398</v>
+        <v>4.253931207427303</v>
       </c>
       <c r="J17">
-        <v>12.85011191681394</v>
+        <v>11.74872639933684</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.624105623595184</v>
+        <v>14.01593682341128</v>
       </c>
       <c r="M17">
-        <v>13.06034025898363</v>
+        <v>14.03628260324676</v>
       </c>
       <c r="N17">
-        <v>5.139591446124275</v>
+        <v>5.565020552648621</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.33364173895276</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.559072278882325</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.17593076587333</v>
+        <v>15.84941000386062</v>
       </c>
       <c r="C18">
-        <v>7.641034321509391</v>
+        <v>8.016205053445782</v>
       </c>
       <c r="D18">
-        <v>3.570117235452315</v>
+        <v>4.054626520957713</v>
       </c>
       <c r="E18">
-        <v>6.029454899061316</v>
+        <v>6.007454752911431</v>
       </c>
       <c r="F18">
-        <v>30.78734535188187</v>
+        <v>27.86559276936861</v>
       </c>
       <c r="G18">
-        <v>40.49309948154198</v>
+        <v>35.7152667870085</v>
       </c>
       <c r="H18">
-        <v>5.659894691007842</v>
+        <v>5.488063335579283</v>
       </c>
       <c r="I18">
-        <v>4.583598250563234</v>
+        <v>4.263434458351455</v>
       </c>
       <c r="J18">
-        <v>13.33854418337025</v>
+        <v>12.19827653620454</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.665566945478751</v>
+        <v>14.63215007182288</v>
       </c>
       <c r="M18">
-        <v>12.84130174938744</v>
+        <v>14.61003467788636</v>
       </c>
       <c r="N18">
-        <v>5.42771423108984</v>
+        <v>5.571524853710358</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.13924459262702</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.880166512968808</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.20870215234283</v>
+        <v>15.84519396951982</v>
       </c>
       <c r="C19">
-        <v>7.374500217726873</v>
+        <v>7.783690793991665</v>
       </c>
       <c r="D19">
-        <v>3.6139082234033</v>
+        <v>4.152548240539349</v>
       </c>
       <c r="E19">
-        <v>6.46774267227595</v>
+        <v>6.412811451006836</v>
       </c>
       <c r="F19">
-        <v>32.80229744958862</v>
+        <v>29.48855068240267</v>
       </c>
       <c r="G19">
-        <v>43.65493608792558</v>
+        <v>38.16560649330111</v>
       </c>
       <c r="H19">
-        <v>4.52384773195081</v>
+        <v>4.31567986394996</v>
       </c>
       <c r="I19">
-        <v>4.559741847163447</v>
+        <v>4.245909483727915</v>
       </c>
       <c r="J19">
-        <v>13.96919116174252</v>
+        <v>12.70284728664314</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.800511888621328</v>
+        <v>15.38813792002242</v>
       </c>
       <c r="M19">
-        <v>12.71609290877447</v>
+        <v>15.3261385120671</v>
       </c>
       <c r="N19">
-        <v>5.848996472484554</v>
+        <v>5.654067796084005</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.04466450228151</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.346588547903988</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.64275660086033</v>
+        <v>16.22348786435513</v>
       </c>
       <c r="C20">
-        <v>7.162910541254057</v>
+        <v>7.616670565974794</v>
       </c>
       <c r="D20">
-        <v>3.733656934027333</v>
+        <v>4.395346426199811</v>
       </c>
       <c r="E20">
-        <v>7.364068025012534</v>
+        <v>7.254485190527986</v>
       </c>
       <c r="F20">
-        <v>36.22299483849392</v>
+        <v>32.07660411237637</v>
       </c>
       <c r="G20">
-        <v>48.99421883108078</v>
+        <v>42.34130711762458</v>
       </c>
       <c r="H20">
-        <v>3.478997007153221</v>
+        <v>3.250758111764745</v>
       </c>
       <c r="I20">
-        <v>4.408379422200412</v>
+        <v>4.121622135675039</v>
       </c>
       <c r="J20">
-        <v>15.02329376664596</v>
+        <v>13.3596611600811</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.170228135373891</v>
+        <v>16.52146212720685</v>
       </c>
       <c r="M20">
-        <v>12.84660118376708</v>
+        <v>16.49812735904969</v>
       </c>
       <c r="N20">
-        <v>6.585909066546527</v>
+        <v>5.924646721888084</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.22190600602893</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.162488535328213</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.60314488967096</v>
+        <v>17.18206578183869</v>
       </c>
       <c r="C21">
-        <v>7.437324360766709</v>
+        <v>7.938443471247892</v>
       </c>
       <c r="D21">
-        <v>3.898447314728777</v>
+        <v>4.759070226494964</v>
       </c>
       <c r="E21">
-        <v>7.672108924356806</v>
+        <v>7.565552683857746</v>
       </c>
       <c r="F21">
-        <v>37.48570578254825</v>
+        <v>32.28594167846556</v>
       </c>
       <c r="G21">
-        <v>50.92507649809882</v>
+        <v>44.49153595990809</v>
       </c>
       <c r="H21">
-        <v>3.152876673274757</v>
+        <v>2.969479573727403</v>
       </c>
       <c r="I21">
-        <v>4.14633465158162</v>
+        <v>3.908685890852385</v>
       </c>
       <c r="J21">
-        <v>15.33687889989804</v>
+        <v>12.53749240826574</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.300891777600224</v>
+        <v>16.29490584700177</v>
       </c>
       <c r="M21">
-        <v>13.59144919728455</v>
+        <v>16.58210882572113</v>
       </c>
       <c r="N21">
-        <v>6.867373757252718</v>
+        <v>6.003341493643378</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.96557881605805</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.48679866020291</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.20635285180175</v>
+        <v>17.78514554127839</v>
       </c>
       <c r="C22">
-        <v>7.611060985388321</v>
+        <v>8.133341370648282</v>
       </c>
       <c r="D22">
-        <v>3.99055985012112</v>
+        <v>4.983077095151506</v>
       </c>
       <c r="E22">
-        <v>7.829530121816125</v>
+        <v>7.730052973410094</v>
       </c>
       <c r="F22">
-        <v>38.21986449531011</v>
+        <v>32.32425049974402</v>
       </c>
       <c r="G22">
-        <v>52.05168315252219</v>
+        <v>45.88329079670666</v>
       </c>
       <c r="H22">
-        <v>2.954911296435297</v>
+        <v>2.800095038767229</v>
       </c>
       <c r="I22">
-        <v>3.972429419438719</v>
+        <v>3.764022279415167</v>
       </c>
       <c r="J22">
-        <v>15.51829251817908</v>
+        <v>11.96407952963541</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.369197410290926</v>
+        <v>16.10790192792168</v>
       </c>
       <c r="M22">
-        <v>14.05766207282096</v>
+        <v>16.60114324125468</v>
       </c>
       <c r="N22">
-        <v>7.008206909993604</v>
+        <v>6.040786588314914</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.42837037185779</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.653348627219492</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.89327491028746</v>
+        <v>17.46927762007417</v>
       </c>
       <c r="C23">
-        <v>7.504457827707149</v>
+        <v>8.018886605643885</v>
       </c>
       <c r="D23">
-        <v>3.931607339626766</v>
+        <v>4.838724510100338</v>
       </c>
       <c r="E23">
-        <v>7.749136938614846</v>
+        <v>7.641371677537613</v>
       </c>
       <c r="F23">
-        <v>37.89653665985571</v>
+        <v>32.43264805516952</v>
       </c>
       <c r="G23">
-        <v>51.56717313831414</v>
+        <v>45.13002218850823</v>
       </c>
       <c r="H23">
-        <v>3.058602313425717</v>
+        <v>2.88760728919864</v>
       </c>
       <c r="I23">
-        <v>4.055205837516958</v>
+        <v>3.828493818701315</v>
       </c>
       <c r="J23">
-        <v>15.44568490132298</v>
+        <v>12.39020983839757</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.337202800652165</v>
+        <v>16.27473303562173</v>
       </c>
       <c r="M23">
-        <v>13.80526627523457</v>
+        <v>16.66060604927884</v>
       </c>
       <c r="N23">
-        <v>6.926139602924805</v>
+        <v>6.026133698586424</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.18098218760618</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.557244287801039</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.6478737750528</v>
+        <v>16.22358031856082</v>
       </c>
       <c r="C24">
-        <v>7.11626462241958</v>
+        <v>7.558472434023214</v>
       </c>
       <c r="D24">
-        <v>3.719818510481084</v>
+        <v>4.387928358311146</v>
       </c>
       <c r="E24">
-        <v>7.431944599230935</v>
+        <v>7.318072247792055</v>
       </c>
       <c r="F24">
-        <v>36.54621876713781</v>
+        <v>32.34721162980905</v>
       </c>
       <c r="G24">
-        <v>49.51483236592602</v>
+        <v>42.75679508052349</v>
       </c>
       <c r="H24">
-        <v>3.461493859038429</v>
+        <v>3.233938626008336</v>
       </c>
       <c r="I24">
-        <v>4.39156527670162</v>
+        <v>4.102735888407397</v>
       </c>
       <c r="J24">
-        <v>15.13208892106165</v>
+        <v>13.45425256731825</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.20615345815286</v>
+        <v>16.66690819592547</v>
       </c>
       <c r="M24">
-        <v>12.81811112719806</v>
+        <v>16.6343512993726</v>
       </c>
       <c r="N24">
-        <v>6.620888154459569</v>
+        <v>5.95255998603507</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.19731674522252</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.203518721131283</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.20033225408193</v>
+        <v>14.79558596958742</v>
       </c>
       <c r="C25">
-        <v>6.681569830642689</v>
+        <v>6.932076809919676</v>
       </c>
       <c r="D25">
-        <v>3.482322428362618</v>
+        <v>4.067399883747431</v>
       </c>
       <c r="E25">
-        <v>7.074382435571453</v>
+        <v>6.997347130109779</v>
       </c>
       <c r="F25">
-        <v>35.05967636939739</v>
+        <v>31.45220754575942</v>
       </c>
       <c r="G25">
-        <v>47.24148201868657</v>
+        <v>41.3706124198889</v>
       </c>
       <c r="H25">
-        <v>3.9132375598701</v>
+        <v>3.639286907642441</v>
       </c>
       <c r="I25">
-        <v>4.770191593901006</v>
+        <v>4.427744647796256</v>
       </c>
       <c r="J25">
-        <v>14.79610357682358</v>
+        <v>13.34523359271254</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.058668388815474</v>
+        <v>16.68838816350572</v>
       </c>
       <c r="M25">
-        <v>11.66740324206201</v>
+        <v>16.24681966168314</v>
       </c>
       <c r="N25">
-        <v>6.279758642624876</v>
+        <v>5.845102923406762</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.01742719139845</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.822367488349792</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
